--- a/data/bak.xlsx
+++ b/data/bak.xlsx
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1302,6 +1302,7 @@
     <col min="25" max="25" width="12.625" customWidth="1"/>
     <col min="26" max="26" width="11.375" customWidth="1"/>
     <col min="28" max="28" width="25.625" customWidth="1"/>
+    <col min="29" max="29" width="12.5166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:24">
